--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>0.2263671019333333</v>
+        <v>0.05912473957499999</v>
       </c>
       <c r="R2">
-        <v>2.0373039174</v>
+        <v>0.532122656175</v>
       </c>
       <c r="S2">
-        <v>0.0001113119094025538</v>
+        <v>1.287469909229936E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001113119094025538</v>
+        <v>1.287469909229936E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>1.501362271521778</v>
+        <v>6.094827929255666</v>
       </c>
       <c r="R3">
-        <v>13.512260443696</v>
+        <v>54.85345136330099</v>
       </c>
       <c r="S3">
-        <v>0.0007382676180448796</v>
+        <v>0.001327178371905897</v>
       </c>
       <c r="T3">
-        <v>0.0007382676180448796</v>
+        <v>0.001327178371905897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>0.6673206101526666</v>
+        <v>0.13322683934</v>
       </c>
       <c r="R4">
-        <v>6.005885491374</v>
+        <v>1.19904155406</v>
       </c>
       <c r="S4">
-        <v>0.0003281427851722319</v>
+        <v>2.901079108086051E-05</v>
       </c>
       <c r="T4">
-        <v>0.000328142785172232</v>
+        <v>2.90107910808605E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>5.647565</v>
       </c>
       <c r="I5">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J5">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>1.517124211166667</v>
+        <v>0.122693349625</v>
       </c>
       <c r="R5">
-        <v>13.6541179005</v>
+        <v>1.104240146625</v>
       </c>
       <c r="S5">
-        <v>0.0007460182654789625</v>
+        <v>2.671707255546342E-05</v>
       </c>
       <c r="T5">
-        <v>0.0007460182654789626</v>
+        <v>2.671707255546343E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>5.647565</v>
       </c>
       <c r="I6">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J6">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>10.06220882983556</v>
+        <v>12.64774880031055</v>
       </c>
       <c r="R6">
-        <v>90.55987946852001</v>
+        <v>113.829739202795</v>
       </c>
       <c r="S6">
-        <v>0.004947908366941468</v>
+        <v>0.002754108705923861</v>
       </c>
       <c r="T6">
-        <v>0.004947908366941468</v>
+        <v>0.002754108705923861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>4.472417792278333</v>
+        <v>0.2764671319666667</v>
       </c>
       <c r="R7">
-        <v>40.25176013050501</v>
+        <v>2.4882041877</v>
       </c>
       <c r="S7">
-        <v>0.002199230187834762</v>
+        <v>6.020206023007839E-05</v>
       </c>
       <c r="T7">
-        <v>0.002199230187834762</v>
+        <v>6.020206023007839E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H8">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I8">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J8">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>83.67957318869999</v>
+        <v>5.491869158875001</v>
       </c>
       <c r="R8">
-        <v>753.1161586983</v>
+        <v>49.426822429875</v>
       </c>
       <c r="S8">
-        <v>0.04114790970097826</v>
+        <v>0.001195881172298505</v>
       </c>
       <c r="T8">
-        <v>0.04114790970097826</v>
+        <v>0.001195881172298505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H9">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I9">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J9">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>554.998288221048</v>
+        <v>566.1250734283539</v>
       </c>
       <c r="R9">
-        <v>4994.984593989432</v>
+        <v>5095.125660855185</v>
       </c>
       <c r="S9">
-        <v>0.2729103242008538</v>
+        <v>0.1232764832689063</v>
       </c>
       <c r="T9">
-        <v>0.2729103242008538</v>
+        <v>0.1232764832689063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H10">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I10">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J10">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>246.683830647987</v>
+        <v>12.37492757456667</v>
       </c>
       <c r="R10">
-        <v>2220.154475831883</v>
+        <v>111.3743481711</v>
       </c>
       <c r="S10">
-        <v>0.121302291603532</v>
+        <v>0.002694700559474621</v>
       </c>
       <c r="T10">
-        <v>0.121302291603532</v>
+        <v>0.00269470055947462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.244783</v>
+      </c>
+      <c r="H11">
+        <v>0.7343489999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0003694168995537743</v>
+      </c>
+      <c r="J11">
+        <v>0.0003694168995537743</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.1385096666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.415529</v>
-      </c>
-      <c r="I11">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="J11">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>0.1116249403666667</v>
+        <v>0.015953732025</v>
       </c>
       <c r="R11">
-        <v>1.0046244633</v>
+        <v>0.143583588225</v>
       </c>
       <c r="S11">
-        <v>5.488953625787535E-05</v>
+        <v>3.474002603605627E-06</v>
       </c>
       <c r="T11">
-        <v>5.488953625787536E-05</v>
+        <v>3.474002603605627E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H12">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J12">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>0.7403437716702224</v>
+        <v>1.644578094056333</v>
       </c>
       <c r="R12">
-        <v>6.663093945032</v>
+        <v>14.801202846507</v>
       </c>
       <c r="S12">
-        <v>0.0003640505980554134</v>
+        <v>0.000358114864386064</v>
       </c>
       <c r="T12">
-        <v>0.0003640505980554134</v>
+        <v>0.000358114864386064</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.244783</v>
+      </c>
+      <c r="H13">
+        <v>0.7343489999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0003694168995537743</v>
+      </c>
+      <c r="J13">
+        <v>0.0003694168995537743</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.1385096666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.415529</v>
-      </c>
-      <c r="I13">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="J13">
-        <v>0.0005807521578527772</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>0.3290655871703334</v>
+        <v>0.03594883138</v>
       </c>
       <c r="R13">
-        <v>2.961590284533</v>
+        <v>0.32353948242</v>
       </c>
       <c r="S13">
-        <v>0.0001618120235394884</v>
+        <v>7.828032564104679E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001618120235394884</v>
+        <v>7.828032564104677E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H14">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I14">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J14">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>55.32957167973333</v>
+        <v>4.09287733415</v>
       </c>
       <c r="R14">
-        <v>497.9661451176</v>
+        <v>36.83589600735</v>
       </c>
       <c r="S14">
-        <v>0.02720731156380843</v>
+        <v>0.0008912439103774878</v>
       </c>
       <c r="T14">
-        <v>0.02720731156380843</v>
+        <v>0.0008912439103774878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H15">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I15">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J15">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>366.9690989103005</v>
+        <v>421.9110860615557</v>
       </c>
       <c r="R15">
-        <v>3302.721890192704</v>
+        <v>3797.199774554002</v>
       </c>
       <c r="S15">
-        <v>0.180450386750413</v>
+        <v>0.09187318736274952</v>
       </c>
       <c r="T15">
-        <v>0.180450386750413</v>
+        <v>0.09187318736274952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H16">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I16">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J16">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>163.1092292893307</v>
+        <v>9.222554128013334</v>
       </c>
       <c r="R16">
-        <v>1467.983063603976</v>
+        <v>83.00298715212</v>
       </c>
       <c r="S16">
-        <v>0.08020599989269382</v>
+        <v>0.002008255936755472</v>
       </c>
       <c r="T16">
-        <v>0.08020599989269384</v>
+        <v>0.002008255936755472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H17">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I17">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J17">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>51.3432732924</v>
+        <v>33.403735601775</v>
       </c>
       <c r="R17">
-        <v>462.0894596316001</v>
+        <v>300.633620415975</v>
       </c>
       <c r="S17">
-        <v>0.02524712176081721</v>
+        <v>0.00727382560198922</v>
       </c>
       <c r="T17">
-        <v>0.02524712176081722</v>
+        <v>0.00727382560198922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H18">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I18">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J18">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>340.5302835936961</v>
+        <v>3443.398180704293</v>
       </c>
       <c r="R18">
-        <v>3064.772552343265</v>
+        <v>30990.58362633863</v>
       </c>
       <c r="S18">
-        <v>0.1674495796980726</v>
+        <v>0.7498166715018263</v>
       </c>
       <c r="T18">
-        <v>0.1674495796980727</v>
+        <v>0.7498166715018263</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H19">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I19">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J19">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>151.357790810124</v>
+        <v>75.26923836558002</v>
       </c>
       <c r="R19">
-        <v>1362.220117291116</v>
+        <v>677.4231452902201</v>
       </c>
       <c r="S19">
-        <v>0.07442744353810314</v>
+        <v>0.0163902420852802</v>
       </c>
       <c r="T19">
-        <v>0.07442744353810317</v>
+        <v>0.0163902420852802</v>
       </c>
     </row>
   </sheetData>
